--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Benson.Spring.011320.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Benson.Spring.011320.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -703,12 +703,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -1315,12 +1315,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1889,12 +1889,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2611,12 +2611,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2877,12 +2877,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3411,12 +3411,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3563,12 +3563,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4057,12 +4057,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -4133,12 +4133,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4209,12 +4209,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4323,12 +4323,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5155,12 +5155,12 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5307,12 +5307,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5535,12 +5535,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5839,12 +5839,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6113,12 +6113,12 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6151,12 +6151,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6341,12 +6341,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6455,12 +6455,12 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6683,12 +6683,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6873,12 +6873,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7063,12 +7063,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7443,12 +7443,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7557,12 +7557,12 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7747,12 +7747,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7899,12 +7899,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8317,12 +8317,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8515,12 +8515,12 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8667,12 +8667,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8895,12 +8895,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9275,12 +9275,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9431,12 +9431,12 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9469,12 +9469,12 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9697,12 +9697,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9811,12 +9811,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9887,12 +9887,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9963,12 +9963,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10195,12 +10195,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10233,12 +10233,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10617,12 +10617,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10921,12 +10921,12 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11267,12 +11267,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11571,12 +11571,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11955,12 +11955,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12415,12 +12415,12 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12453,12 +12453,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12909,12 +12909,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12947,12 +12947,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13757,12 +13757,12 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13909,12 +13909,12 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -14103,12 +14103,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14719,12 +14719,12 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14837,12 +14837,12 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14875,12 +14875,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15069,12 +15069,12 @@
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15107,12 +15107,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15145,12 +15145,12 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15183,12 +15183,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15339,12 +15339,12 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15757,12 +15757,12 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15833,12 +15833,12 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15985,12 +15985,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16217,12 +16217,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16331,12 +16331,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16369,12 +16369,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16487,12 +16487,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16601,12 +16601,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16867,12 +16867,12 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16905,12 +16905,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17209,12 +17209,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17517,12 +17517,12 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17631,12 +17631,12 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17669,12 +17669,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17783,12 +17783,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18129,12 +18129,12 @@
       <c r="H463" t="inlineStr"/>
       <c r="I463" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18323,12 +18323,12 @@
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18593,12 +18593,12 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18669,12 +18669,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18783,12 +18783,12 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18863,12 +18863,12 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18901,12 +18901,12 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19213,12 +19213,12 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19483,12 +19483,12 @@
       <c r="H498" t="inlineStr"/>
       <c r="I498" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20091,12 +20091,12 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20129,12 +20129,12 @@
       <c r="H515" t="inlineStr"/>
       <c r="I515" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20281,12 +20281,12 @@
       <c r="H519" t="inlineStr"/>
       <c r="I519" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20319,12 +20319,12 @@
       <c r="H520" t="inlineStr"/>
       <c r="I520" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20433,12 +20433,12 @@
       <c r="H523" t="inlineStr"/>
       <c r="I523" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20547,12 +20547,12 @@
       <c r="H526" t="inlineStr"/>
       <c r="I526" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20741,12 +20741,12 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21197,12 +21197,12 @@
       <c r="H543" t="inlineStr"/>
       <c r="I543" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21349,12 +21349,12 @@
       <c r="H547" t="inlineStr"/>
       <c r="I547" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21847,12 +21847,12 @@
       <c r="H560" t="inlineStr"/>
       <c r="I560" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22151,12 +22151,12 @@
       <c r="H568" t="inlineStr"/>
       <c r="I568" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22531,12 +22531,12 @@
       <c r="H578" t="inlineStr"/>
       <c r="I578" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22757,12 +22757,12 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23255,12 +23255,12 @@
       <c r="H597" t="inlineStr"/>
       <c r="I597" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23407,12 +23407,12 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23753,12 +23753,12 @@
       <c r="H610" t="inlineStr"/>
       <c r="I610" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J610" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24095,12 +24095,12 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24247,12 +24247,12 @@
       <c r="H623" t="inlineStr"/>
       <c r="I623" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24285,12 +24285,12 @@
       <c r="H624" t="inlineStr"/>
       <c r="I624" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -24437,12 +24437,12 @@
       <c r="H628" t="inlineStr"/>
       <c r="I628" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24513,12 +24513,12 @@
       <c r="H630" t="inlineStr"/>
       <c r="I630" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24741,12 +24741,12 @@
       <c r="H636" t="inlineStr"/>
       <c r="I636" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
